--- a/team_specific_matrix/TCU_A.xlsx
+++ b/team_specific_matrix/TCU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2016806722689076</v>
+        <v>0.2048611111111111</v>
       </c>
       <c r="C2">
-        <v>0.5126050420168067</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02521008403361345</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004201680672268907</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="P2">
-        <v>0.138655462184874</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03125</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="C3">
-        <v>0.03125</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.703125</v>
+        <v>0.7225806451612903</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.203125</v>
+        <v>0.1870967741935484</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7575757575757576</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2121212121212121</v>
+        <v>0.1627906976744186</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08024691358024691</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006172839506172839</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07407407407407407</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2160493827160494</v>
+        <v>0.2588832487309645</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01851851851851852</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1851851851851852</v>
+        <v>0.1624365482233502</v>
       </c>
       <c r="R6">
-        <v>0.06790123456790123</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="S6">
-        <v>0.3518518518518519</v>
+        <v>0.3401015228426396</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1197183098591549</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007042253521126761</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08450704225352113</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1549295774647887</v>
+        <v>0.1597633136094675</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02816901408450704</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2112676056338028</v>
+        <v>0.1952662721893491</v>
       </c>
       <c r="R7">
-        <v>0.0352112676056338</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="S7">
-        <v>0.3591549295774648</v>
+        <v>0.3727810650887574</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08579881656804733</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02366863905325444</v>
+        <v>0.0215311004784689</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05621301775147929</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1153846153846154</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03254437869822485</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1775147928994083</v>
+        <v>0.1770334928229665</v>
       </c>
       <c r="R8">
-        <v>0.1094674556213018</v>
+        <v>0.1124401913875598</v>
       </c>
       <c r="S8">
-        <v>0.3994082840236686</v>
+        <v>0.3875598086124402</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1147540983606557</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00819672131147541</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05737704918032787</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2213114754098361</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00819672131147541</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.180327868852459</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="R9">
-        <v>0.08196721311475409</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="S9">
-        <v>0.3278688524590164</v>
+        <v>0.3221476510067114</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1263736263736264</v>
+        <v>0.1142384105960265</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02417582417582418</v>
+        <v>0.02400662251655629</v>
       </c>
       <c r="E10">
-        <v>0.002197802197802198</v>
+        <v>0.001655629139072848</v>
       </c>
       <c r="F10">
-        <v>0.06263736263736264</v>
+        <v>0.05960264900662252</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1274725274725275</v>
+        <v>0.1316225165562914</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01538461538461539</v>
+        <v>0.01655629139072848</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.245054945054945</v>
+        <v>0.2682119205298013</v>
       </c>
       <c r="R10">
-        <v>0.05714285714285714</v>
+        <v>0.05463576158940397</v>
       </c>
       <c r="S10">
-        <v>0.3395604395604396</v>
+        <v>0.3294701986754967</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1269035532994924</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1015228426395939</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="K11">
-        <v>0.1573604060913706</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L11">
-        <v>0.5989847715736041</v>
+        <v>0.5894308943089431</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01522842639593909</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7202797202797203</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1958041958041958</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="K12">
-        <v>0.01398601398601399</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="L12">
-        <v>0.02097902097902098</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04895104895104895</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0303030303030303</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G13">
-        <v>0.696969696969697</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2121212121212121</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02836879432624113</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1418439716312057</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="I15">
-        <v>0.04964539007092199</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="J15">
-        <v>0.3191489361702128</v>
+        <v>0.3457446808510639</v>
       </c>
       <c r="K15">
-        <v>0.09929078014184398</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1134751773049645</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2482269503546099</v>
+        <v>0.2553191489361702</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01428571428571429</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1928571428571429</v>
+        <v>0.2055555555555555</v>
       </c>
       <c r="I16">
-        <v>0.08571428571428572</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="J16">
-        <v>0.3642857142857143</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="K16">
-        <v>0.1142857142857143</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03571428571428571</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08571428571428572</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1071428571428571</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0108991825613079</v>
+        <v>0.01629327902240326</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1689373297002725</v>
+        <v>0.1710794297352342</v>
       </c>
       <c r="I17">
-        <v>0.06811989100817439</v>
+        <v>0.06109979633401222</v>
       </c>
       <c r="J17">
-        <v>0.4741144414168937</v>
+        <v>0.4562118126272913</v>
       </c>
       <c r="K17">
-        <v>0.07901907356948229</v>
+        <v>0.07942973523421588</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02452316076294278</v>
+        <v>0.0285132382892057</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05722070844686648</v>
+        <v>0.06924643584521385</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1171662125340599</v>
+        <v>0.1181262729124236</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008620689655172414</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1724137931034483</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="I18">
-        <v>0.07758620689655173</v>
+        <v>0.08783783783783784</v>
       </c>
       <c r="J18">
-        <v>0.4310344827586207</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="K18">
-        <v>0.1120689655172414</v>
+        <v>0.1013513513513514</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04310344827586207</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1551724137931035</v>
+        <v>0.1554054054054054</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02350176263219741</v>
+        <v>0.02075471698113207</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.236192714453584</v>
+        <v>0.230188679245283</v>
       </c>
       <c r="I19">
-        <v>0.07638072855464159</v>
+        <v>0.07264150943396226</v>
       </c>
       <c r="J19">
-        <v>0.354876615746181</v>
+        <v>0.3716981132075471</v>
       </c>
       <c r="K19">
-        <v>0.09870740305522914</v>
+        <v>0.09811320754716982</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02350176263219741</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="N19">
-        <v>0.001175088131609871</v>
+        <v>0.0009433962264150943</v>
       </c>
       <c r="O19">
-        <v>0.05287896592244418</v>
+        <v>0.05849056603773585</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1327849588719154</v>
+        <v>0.1245283018867925</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/TCU_A.xlsx
+++ b/team_specific_matrix/TCU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2048611111111111</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="C2">
-        <v>0.5104166666666666</v>
+        <v>0.528052805280528</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02777777777777778</v>
+        <v>0.0264026402640264</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003472222222222222</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="P2">
-        <v>0.1423611111111111</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1111111111111111</v>
+        <v>0.1056105610561056</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02580645161290323</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="C3">
-        <v>0.03870967741935484</v>
+        <v>0.04142011834319527</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02580645161290323</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7225806451612903</v>
+        <v>0.7218934911242604</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1870967741935484</v>
+        <v>0.1893491124260355</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.813953488372093</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1627906976744186</v>
+        <v>0.148936170212766</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07614213197969544</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005076142131979695</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06091370558375635</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2588832487309645</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02538071065989848</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1624365482233502</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="R6">
-        <v>0.07106598984771574</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="S6">
-        <v>0.3401015228426396</v>
+        <v>0.3380281690140845</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1183431952662722</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005917159763313609</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07100591715976332</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1597633136094675</v>
+        <v>0.1638418079096045</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02958579881656805</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1952662721893491</v>
+        <v>0.192090395480226</v>
       </c>
       <c r="R7">
-        <v>0.04733727810650887</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="S7">
-        <v>0.3727810650887574</v>
+        <v>0.3728813559322034</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08851674641148326</v>
+        <v>0.09192825112107623</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0215311004784689</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05263157894736842</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.131578947368421</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02870813397129187</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1770334928229665</v>
+        <v>0.1704035874439462</v>
       </c>
       <c r="R8">
-        <v>0.1124401913875598</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="S8">
-        <v>0.3875598086124402</v>
+        <v>0.3968609865470852</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1208053691275168</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02013422818791946</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04697986577181208</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2147651006711409</v>
+        <v>0.2024539877300613</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01342281879194631</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1812080536912752</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="R9">
-        <v>0.08053691275167785</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="S9">
-        <v>0.3221476510067114</v>
+        <v>0.3496932515337423</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1142384105960265</v>
+        <v>0.1123941493456505</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02400662251655629</v>
+        <v>0.02463433410315627</v>
       </c>
       <c r="E10">
-        <v>0.001655629139072848</v>
+        <v>0.001539645881447267</v>
       </c>
       <c r="F10">
-        <v>0.05960264900662252</v>
+        <v>0.06004618937644342</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1316225165562914</v>
+        <v>0.1293302540415704</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01655629139072848</v>
+        <v>0.01616628175519631</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2682119205298013</v>
+        <v>0.262509622786759</v>
       </c>
       <c r="R10">
-        <v>0.05463576158940397</v>
+        <v>0.05619707467282525</v>
       </c>
       <c r="S10">
-        <v>0.3294701986754967</v>
+        <v>0.3371824480369515</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1219512195121951</v>
+        <v>0.1169811320754717</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1097560975609756</v>
+        <v>0.1169811320754717</v>
       </c>
       <c r="K11">
-        <v>0.1666666666666667</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="L11">
-        <v>0.5894308943089431</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219512195121951</v>
+        <v>0.01132075471698113</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7034883720930233</v>
+        <v>0.6994535519125683</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2093023255813954</v>
+        <v>0.2076502732240437</v>
       </c>
       <c r="K12">
-        <v>0.01744186046511628</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L12">
-        <v>0.02325581395348837</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04651162790697674</v>
+        <v>0.04371584699453552</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03191489361702127</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1276595744680851</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="I15">
-        <v>0.04787234042553191</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="J15">
-        <v>0.3457446808510639</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.09042553191489362</v>
+        <v>0.09950248756218906</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005319148936170213</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09574468085106383</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2553191489361702</v>
+        <v>0.2537313432835821</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02222222222222222</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2055555555555555</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="I16">
-        <v>0.08888888888888889</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="J16">
-        <v>0.3666666666666666</v>
+        <v>0.3641025641025641</v>
       </c>
       <c r="K16">
-        <v>0.1055555555555556</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1166666666666667</v>
+        <v>0.1128205128205128</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01629327902240326</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1710794297352342</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="I17">
-        <v>0.06109979633401222</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="J17">
-        <v>0.4562118126272913</v>
+        <v>0.4476744186046512</v>
       </c>
       <c r="K17">
-        <v>0.07942973523421588</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0285132382892057</v>
+        <v>0.02713178294573643</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06924643584521385</v>
+        <v>0.07364341085271318</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1181262729124236</v>
+        <v>0.1220930232558139</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01351351351351351</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1486486486486487</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="I18">
-        <v>0.08783783783783784</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="J18">
-        <v>0.4459459459459459</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K18">
-        <v>0.1013513513513514</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01351351351351351</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03378378378378379</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1554054054054054</v>
+        <v>0.1490683229813665</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02075471698113207</v>
+        <v>0.0216076058772688</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.230188679245283</v>
+        <v>0.2221261884183232</v>
       </c>
       <c r="I19">
-        <v>0.07264150943396226</v>
+        <v>0.07346585998271392</v>
       </c>
       <c r="J19">
-        <v>0.3716981132075471</v>
+        <v>0.3837510803802939</v>
       </c>
       <c r="K19">
-        <v>0.09811320754716982</v>
+        <v>0.09507346585998272</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02264150943396226</v>
+        <v>0.02074330164217805</v>
       </c>
       <c r="N19">
-        <v>0.0009433962264150943</v>
+        <v>0.000864304235090752</v>
       </c>
       <c r="O19">
-        <v>0.05849056603773585</v>
+        <v>0.05704407951598963</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1245283018867925</v>
+        <v>0.125324114088159</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/TCU_A.xlsx
+++ b/team_specific_matrix/TCU_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.198019801980198</v>
+        <v>0.1907692307692308</v>
       </c>
       <c r="C2">
-        <v>0.528052805280528</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0264026402640264</v>
+        <v>0.02769230769230769</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0033003300330033</v>
+        <v>0.003076923076923077</v>
       </c>
       <c r="P2">
-        <v>0.1386138613861386</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1056105610561056</v>
+        <v>0.1015384615384615</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02366863905325444</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C3">
-        <v>0.04142011834319527</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02366863905325444</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7218934911242604</v>
+        <v>0.7282608695652174</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1893491124260355</v>
+        <v>0.1847826086956522</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.148936170212766</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07511737089201878</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004694835680751174</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05633802816901409</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2676056338028169</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02347417840375587</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1643192488262911</v>
+        <v>0.16</v>
       </c>
       <c r="R6">
-        <v>0.07042253521126761</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="S6">
-        <v>0.3380281690140845</v>
+        <v>0.3422222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1129943502824859</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005649717514124294</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06779661016949153</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1638418079096045</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02824858757062147</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.192090395480226</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="R7">
-        <v>0.05649717514124294</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="S7">
-        <v>0.3728813559322034</v>
+        <v>0.3692307692307693</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09192825112107623</v>
+        <v>0.08865979381443299</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02242152466367713</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05381165919282511</v>
+        <v>0.05360824742268041</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1255605381165919</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02690582959641256</v>
+        <v>0.02474226804123711</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1704035874439462</v>
+        <v>0.1690721649484536</v>
       </c>
       <c r="R8">
-        <v>0.1121076233183857</v>
+        <v>0.1175257731958763</v>
       </c>
       <c r="S8">
-        <v>0.3968609865470852</v>
+        <v>0.4020618556701031</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1165644171779141</v>
+        <v>0.1079545454545455</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01840490797546012</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.049079754601227</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2024539877300613</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01226993865030675</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1779141104294479</v>
+        <v>0.1761363636363636</v>
       </c>
       <c r="R9">
-        <v>0.0736196319018405</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="S9">
-        <v>0.3496932515337423</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1123941493456505</v>
+        <v>0.1159107271418287</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02463433410315627</v>
+        <v>0.02375809935205184</v>
       </c>
       <c r="E10">
-        <v>0.001539645881447267</v>
+        <v>0.001439884809215263</v>
       </c>
       <c r="F10">
-        <v>0.06004618937644342</v>
+        <v>0.05903527717782577</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1293302540415704</v>
+        <v>0.1267098632109431</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01616628175519631</v>
+        <v>0.01583873290136789</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.262509622786759</v>
+        <v>0.2613390928725702</v>
       </c>
       <c r="R10">
-        <v>0.05619707467282525</v>
+        <v>0.05759539236861051</v>
       </c>
       <c r="S10">
-        <v>0.3371824480369515</v>
+        <v>0.3383729301655867</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1169811320754717</v>
+        <v>0.12</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1169811320754717</v>
+        <v>0.13</v>
       </c>
       <c r="K11">
-        <v>0.169811320754717</v>
+        <v>0.1766666666666667</v>
       </c>
       <c r="L11">
-        <v>0.5849056603773585</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01132075471698113</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6994535519125683</v>
+        <v>0.702020202020202</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2076502732240437</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="K12">
-        <v>0.01639344262295082</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L12">
-        <v>0.03278688524590164</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04371584699453552</v>
+        <v>0.04040404040404041</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02222222222222222</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G13">
-        <v>0.6222222222222222</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3111111111111111</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04444444444444445</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03482587064676617</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1194029850746269</v>
+        <v>0.1244239631336406</v>
       </c>
       <c r="I15">
-        <v>0.05970149253731343</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.336405529953917</v>
       </c>
       <c r="K15">
-        <v>0.09950248756218906</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004975124378109453</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0945273631840796</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2537313432835821</v>
+        <v>0.2396313364055299</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02051282051282051</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2051282051282051</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="I16">
-        <v>0.09743589743589744</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.3641025641025641</v>
+        <v>0.3732057416267943</v>
       </c>
       <c r="K16">
-        <v>0.1076923076923077</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02564102564102564</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06666666666666667</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1128205128205128</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01550387596899225</v>
+        <v>0.01633393829401089</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1744186046511628</v>
+        <v>0.1814882032667877</v>
       </c>
       <c r="I17">
-        <v>0.05813953488372093</v>
+        <v>0.05989110707803993</v>
       </c>
       <c r="J17">
-        <v>0.4476744186046512</v>
+        <v>0.4428312159709619</v>
       </c>
       <c r="K17">
-        <v>0.08139534883720931</v>
+        <v>0.0852994555353902</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02713178294573643</v>
+        <v>0.02540834845735027</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07364341085271318</v>
+        <v>0.07078039927404718</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1220930232558139</v>
+        <v>0.117967332123412</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0124223602484472</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1739130434782609</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="I18">
-        <v>0.08074534161490683</v>
+        <v>0.07222222222222222</v>
       </c>
       <c r="J18">
-        <v>0.4347826086956522</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="K18">
-        <v>0.09937888198757763</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0124223602484472</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03726708074534162</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1490683229813665</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0216076058772688</v>
+        <v>0.02012882447665056</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2221261884183232</v>
+        <v>0.2230273752012882</v>
       </c>
       <c r="I19">
-        <v>0.07346585998271392</v>
+        <v>0.0748792270531401</v>
       </c>
       <c r="J19">
-        <v>0.3837510803802939</v>
+        <v>0.3776167471819646</v>
       </c>
       <c r="K19">
-        <v>0.09507346585998272</v>
+        <v>0.09822866344605476</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02074330164217805</v>
+        <v>0.02093397745571659</v>
       </c>
       <c r="N19">
-        <v>0.000864304235090752</v>
+        <v>0.0008051529790660225</v>
       </c>
       <c r="O19">
-        <v>0.05704407951598963</v>
+        <v>0.05877616747181964</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.125324114088159</v>
+        <v>0.1256038647342995</v>
       </c>
     </row>
   </sheetData>
